--- a/out/BPI12/results/result_25/prova_25.0_linux.xlsx
+++ b/out/BPI12/results/result_25/prova_25.0_linux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/result_25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C4C265-C3D1-2F4B-8A9C-F725DF4C5012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA400693-A543-B641-BE00-8055EEE297E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{54841A03-5009-43B1-BA78-E43B18488EC4}"/>
   </bookViews>
@@ -303,10 +303,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -338,9 +339,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,12 +658,13 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2868,16 +2872,19 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="27">
         <f>(0*Y2+0*Y3+D29*Y4+E29*Y5+F29*Y6+G29*Y7+H29*Y8+I29*Y9+J29*Y10+K29*Y11+0*Y12+M29*Y13+N29*Y14+O29*Y15+P29*Y16+Q29*Y17+R29*Y18+0*Y19+0*Y20+U29*Y21+0*Y22+W29*Y23)/Y25</f>
         <v>0.52552027990198624</v>
       </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="27">
         <f>(B2+C3+D4+E5+F6+G7+H8+I9+J10+K11+L12+M13+N14+O15+P16+Q17+R18+S19+T20+U21+V22+W23)/Y25</f>
         <v>0.58330631214872464</v>
       </c>
